--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.030221.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.030221.xlsx_with_dialog_acts.xlsx
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2616,12 +2616,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3792,12 +3792,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4548,12 +4548,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4926,12 +4926,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5687,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6275,12 +6275,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9001,12 +9001,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9883,12 +9883,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10303,12 +10303,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10842,12 +10842,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10884,12 +10884,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11136,12 +11136,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11174,12 +11174,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12307,12 +12307,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13263,12 +13263,12 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13339,12 +13339,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14033,12 +14033,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14492,12 +14492,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14534,12 +14534,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14897,12 +14897,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15145,12 +15145,12 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15348,12 +15348,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15558,12 +15558,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16220,12 +16220,12 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
